--- a/Data/new2.xlsx
+++ b/Data/new2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C3:G8"/>
+  <dimension ref="C3:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +498,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>sam walton</t>
+          <t>n.a.</t>
         </is>
       </c>
     </row>
@@ -520,50 +520,6 @@
       <c r="G6" t="inlineStr">
         <is>
           <t>bill gates</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RIL </t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>not available</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>50</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1023</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>mukesh ambani</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>TATA</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>ratan tata</t>
         </is>
       </c>
     </row>
